--- a/sample/양식샘플-테이블명세-양식.xlsx
+++ b/sample/양식샘플-테이블명세-양식.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,6 +115,113 @@
   </si>
   <si>
     <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPage</t>
+  </si>
+  <si>
+    <t>pageNo</t>
+  </si>
+  <si>
+    <t>resultCode</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+  </si>
+  <si>
+    <t>numOfRows</t>
+  </si>
+  <si>
+    <t>resultMsg</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tourDestNm</t>
+  </si>
+  <si>
+    <t>operationRuleNm</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lng</t>
+  </si>
+  <si>
+    <t>tourDestIntro</t>
+  </si>
+  <si>
+    <t>mngAgcTel</t>
+  </si>
+  <si>
+    <t>mngAgcNm</t>
+  </si>
+  <si>
+    <t>syncTime</t>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>NUMBER(4)</t>
+  </si>
+  <si>
+    <t>NUMBER(2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(1000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -122,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -155,6 +262,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -176,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -551,13 +666,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +805,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,7 +1160,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1032,8 +1169,8 @@
     <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.44140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" style="1" customWidth="1"/>
@@ -1766,10 +1903,16 @@
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>45</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1781,10 +1924,16 @@
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -1796,10 +1945,16 @@
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>46</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -1811,10 +1966,16 @@
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1826,10 +1987,16 @@
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1841,10 +2008,16 @@
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>43</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1856,12 +2029,20 @@
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>47</v>
+      </c>
       <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
@@ -1871,10 +2052,16 @@
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>49</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1886,10 +2073,16 @@
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1901,10 +2094,16 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1916,10 +2115,16 @@
       <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>48</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1931,10 +2136,16 @@
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>53</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1946,10 +2157,16 @@
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -1961,10 +2178,16 @@
       <c r="B19" s="9">
         <v>14</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>50</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -1976,10 +2199,16 @@
       <c r="B20" s="9">
         <v>15</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -1991,9 +2220,9 @@
       <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
